--- a/VNDirect_data.xlsx
+++ b/VNDirect_data.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I52"/>
+  <dimension ref="A1:I53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
       <selection activeCell="L45" sqref="L45"/>
@@ -2872,6 +2872,53 @@
         </is>
       </c>
     </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>15/01/2026</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>1,864.80</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>-29.64</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>-1.56</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>40,717.453</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1,235,333,766</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>177</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/VNDirect_data.xlsx
+++ b/VNDirect_data.xlsx
@@ -1,102 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Programming\1_Python\VNIndexAutoscrap\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94230DAF-0F94-4DC9-BE22-10AF84733781}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
-  <si>
-    <t>ThoiGian</t>
-  </si>
-  <si>
-    <t>VNIndex</t>
-  </si>
-  <si>
-    <t>Spread</t>
-  </si>
-  <si>
-    <t>Spread%</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>Volume</t>
-  </si>
-  <si>
-    <t>CP_Tang</t>
-  </si>
-  <si>
-    <t>CP_Giam</t>
-  </si>
-  <si>
-    <t>CP_KhongDoi</t>
-  </si>
-  <si>
-    <t>177</t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>15/01/2026</t>
-  </si>
-  <si>
-    <t>1,864.80</t>
-  </si>
-  <si>
-    <t>-29.64</t>
-  </si>
-  <si>
-    <t>-1.56</t>
-  </si>
-  <si>
-    <t>40,717.453</t>
-  </si>
-  <si>
-    <t>1,235,333,766</t>
-  </si>
-  <si>
-    <t>147</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <name val="Calibri"/>
+      <b val="1"/>
       <sz val="11"/>
-      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -115,24 +51,83 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -420,71 +415,158 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ThoiGian</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>VNIndex</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Spread</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Spread%</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Volume</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>CP_Tang</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>CP_Giam</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>CP_KhongDoi</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" t="s">
-        <v>10</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>15/01/2026</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>1,864.80</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>-29.64</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>-1.56</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>40,717.453</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1,235,333,766</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>177</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>16/01/2026</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>1,879.13</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>14.33</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>34,366.445</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1,011,056,506</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>174</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/VNDirect_data.xlsx
+++ b/VNDirect_data.xlsx
@@ -2,14 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -25,9 +26,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Calibri"/>
       <b val="1"/>
-      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
@@ -38,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -46,18 +45,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -420,150 +425,103 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>ThoiGian</t>
+          <t>取引日</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>VNIndex</t>
+          <t>VN指数</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Spread</t>
+          <t>前日比(ポイント)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Spread%</t>
+          <t>前日比(%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Value</t>
+          <t>売買代金</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Volume</t>
+          <t>出来高</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CP_Tang</t>
+          <t>上昇銘柄数</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>CP_Giam</t>
+          <t>下落銘柄数</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>CP_KhongDoi</t>
+          <t>変わらず銘柄数</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>15/01/2026</t>
+          <t>16/01/2026</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1,864.80</t>
+          <t>1,879.13</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-29.64</t>
+          <t>14.33</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>-1.56</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>40,717.453</t>
+          <t>34,366.445</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1,235,333,766</t>
+          <t>1,011,056,506</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>143</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>174</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>16/01/2026</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>1,879.13</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>14.33</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.77</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>34,366.445</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1,011,056,506</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>143</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>174</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
         <is>
           <t>65</t>
         </is>

--- a/VNDirect_data.xlsx
+++ b/VNDirect_data.xlsx
@@ -456,7 +456,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>売買代金</t>
+          <t>売買代金(億VND)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -483,48 +483,32 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>16/01/2026</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>1,879.13</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>14.33</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.77</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>34,366.445</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1,011,056,506</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>143</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>174</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>65</t>
-        </is>
+          <t>26/01/2026</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1843.72</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-27.07</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-1.45</v>
+      </c>
+      <c r="E2" t="n">
+        <v>31657.998</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1102434183</v>
+      </c>
+      <c r="G2" t="n">
+        <v>73</v>
+      </c>
+      <c r="H2" t="n">
+        <v>264</v>
+      </c>
+      <c r="I2" t="n">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
